--- a/csv/biomass_matrix.xlsx
+++ b/csv/biomass_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshitaka-i/fba-minimum-model/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1CC3ED-D212-914C-89B6-84294E7F11B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305C0B30-84A5-314A-A0AF-A3694C09BAF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{02682794-5E1C-1B4F-A8E1-AAF74A615658}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="38400" windowHeight="20540" xr2:uid="{02682794-5E1C-1B4F-A8E1-AAF74A615658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>amino acid</t>
   </si>
@@ -84,42 +84,6 @@
     <t>-0.53889</t>
   </si>
   <si>
-    <t>Histidine</t>
-  </si>
-  <si>
-    <t>-0.12641</t>
-  </si>
-  <si>
-    <t>isoleucine</t>
-  </si>
-  <si>
-    <t>-0.28608</t>
-  </si>
-  <si>
-    <t>Leucine</t>
-  </si>
-  <si>
-    <t>-0.54554</t>
-  </si>
-  <si>
-    <t>Lysine</t>
-  </si>
-  <si>
-    <t>-0.59211</t>
-  </si>
-  <si>
-    <t>Methionine</t>
-  </si>
-  <si>
-    <t>-0.15302</t>
-  </si>
-  <si>
-    <t>Phenylalanine</t>
-  </si>
-  <si>
-    <t>-0.25947</t>
-  </si>
-  <si>
     <t>Proline</t>
   </si>
   <si>
@@ -132,39 +96,9 @@
     <t>-0.39253</t>
   </si>
   <si>
-    <t>Threonine</t>
-  </si>
-  <si>
-    <t>-0.31269</t>
-  </si>
-  <si>
-    <t>Tryptophan</t>
-  </si>
-  <si>
-    <t>-0.013306</t>
-  </si>
-  <si>
-    <t>2 PEP + E4P + ADP + 3PG + PRPP + NAD</t>
-  </si>
-  <si>
-    <t>Tyrosine</t>
-  </si>
-  <si>
-    <t>Valine</t>
-  </si>
-  <si>
     <t>Pyruvate + NADP</t>
   </si>
   <si>
-    <t>PRPP + 4 ATP + NADP + 2 NAD + CoA + Pyruvate</t>
-  </si>
-  <si>
-    <t>2 PEP + E4P + ATP</t>
-  </si>
-  <si>
-    <t>2 Pyruvate</t>
-  </si>
-  <si>
     <t>Alanine + NADPH</t>
   </si>
   <si>
@@ -177,33 +111,12 @@
     <t>NADH + Glycine + NADPH</t>
   </si>
   <si>
-    <t>Histidine + 4 ADP + 2 NADH + Acetyl-CoA + NADPH</t>
-  </si>
-  <si>
-    <t>CoA + NADH + Leucine</t>
-  </si>
-  <si>
-    <t>2 NADP + ADP + Lysine + CO2 + Succinate + CoA</t>
-  </si>
-  <si>
-    <t>CO2 + H2O + Phenylalanine</t>
-  </si>
-  <si>
     <t>ADP + NADP + Proline</t>
   </si>
   <si>
     <t>NADH + Serine + NADPH</t>
   </si>
   <si>
-    <t>2 NADP + 2 ADP + Threonine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP + Pyruvate + PPi + CO2 + G3P + Trp + NADH + H+ </t>
-  </si>
-  <si>
-    <t>ADP + NADP + 2 CoA + Succinate + Pyruvate + Methionine + NADH + accetate</t>
-  </si>
-  <si>
     <t>Glutamate + NADPH</t>
   </si>
   <si>
@@ -222,65 +135,30 @@
     <t>3PG + NAD + NADP</t>
   </si>
   <si>
-    <t>2 PEP + E4P + 2 ATP + NAD</t>
-  </si>
-  <si>
     <t>3PG + NAD + NADP + Acetyl-CoA</t>
   </si>
   <si>
-    <t>2 Pyruvate + Acetyl-CoA + NAD</t>
-  </si>
-  <si>
-    <t>αKG + Acetyl-CoA + Oxaloaccetate + 5 ATP + 2 NADP</t>
-  </si>
-  <si>
-    <t>2 NADPH + CoA + accetate + AMP + Fumarate + Arginine</t>
-  </si>
-  <si>
     <t>Oxaloaccetate + NADP + ATP</t>
   </si>
   <si>
     <t>Oxaloaccetate + NADP</t>
   </si>
   <si>
-    <t>NADH + NADPH + Cysteine + accetate + CoA</t>
-  </si>
-  <si>
-    <t>Oxaloaccetate + Pyruvate</t>
-  </si>
-  <si>
-    <t>Oxaloaccetate + ATP + 2 NADPH + Succinyl-CoA + Pyruvate</t>
-  </si>
-  <si>
-    <t>Oxaloaccetate + ATP + Succinyl-CoA + 3PG + NAD + Acetyl-CoA</t>
-  </si>
-  <si>
-    <t>Oxaloaccetate + 2 ATP + 2 NADPH</t>
-  </si>
-  <si>
-    <t>Isoleucine + CO2</t>
-  </si>
-  <si>
-    <t>Tyrosine + NADH + CO2</t>
-  </si>
-  <si>
-    <t>Valine + CO2</t>
+    <t>NADH + NADPH + Cysteine + Accetate + CoA</t>
+  </si>
+  <si>
+    <t>αKG + 3 ATP + 2 NADP + Oxaloaccetate + NH3 + CO2</t>
+  </si>
+  <si>
+    <t>Arg + Fum + 3 ADP + 2 NADPH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -308,18 +186,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,18 +505,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A92741F-5C33-DD4F-804F-5E00683BA89A}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="258" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -655,10 +526,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -669,109 +540,109 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>46</v>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-0.38586999999999999</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -781,170 +652,33 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-0.38586999999999999</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1">
-        <v>-0.15967000000000001</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>79</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A3:D21">
+    <sortCondition ref="C1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" tooltip="NADP" display="https://en.wikipedia.org/wiki/NADP" xr:uid="{E34F57AA-D07C-DC43-92B6-1D12A90B19F8}"/>
+    <hyperlink ref="D11" r:id="rId1" tooltip="NADP" display="https://en.wikipedia.org/wiki/NADP" xr:uid="{E34F57AA-D07C-DC43-92B6-1D12A90B19F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
